--- a/data/trans_orig/P33B_R3-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P33B_R3-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>101457</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>83437</v>
+        <v>83701</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123442</v>
+        <v>124312</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1471187234547327</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1209878809084371</v>
+        <v>0.1213716107427502</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1789981862848681</v>
+        <v>0.1802595213716248</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>299</v>
@@ -762,19 +762,19 @@
         <v>167319</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>149569</v>
+        <v>149574</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>185369</v>
+        <v>186262</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.2283532144723169</v>
+        <v>0.2283532144723168</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2041277742079408</v>
+        <v>0.2041348012268895</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2529873221662901</v>
+        <v>0.2542050913538194</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>416</v>
@@ -783,19 +783,19 @@
         <v>268777</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>243738</v>
+        <v>244768</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>299760</v>
+        <v>300508</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.1889665821057141</v>
+        <v>0.188966582105714</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1713628747540155</v>
+        <v>0.1720870919162334</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2107497683562054</v>
+        <v>0.211275637692608</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>588171</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>566186</v>
+        <v>565316</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>606191</v>
+        <v>605927</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8528812765452672</v>
+        <v>0.8528812765452674</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8210018137151315</v>
+        <v>0.8197404786283752</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8790121190915627</v>
+        <v>0.8786283892572496</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>939</v>
@@ -833,19 +833,19 @@
         <v>565403</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>547353</v>
+        <v>546460</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>583153</v>
+        <v>583148</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.7716467855276832</v>
+        <v>0.7716467855276831</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7470126778337098</v>
+        <v>0.7457949086461809</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7958722257920593</v>
+        <v>0.7958651987731106</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1551</v>
@@ -854,19 +854,19 @@
         <v>1153573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1122590</v>
+        <v>1121842</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1178612</v>
+        <v>1177582</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.811033417894286</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7892502316437947</v>
+        <v>0.7887243623073922</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8286371252459843</v>
+        <v>0.8279129080837666</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>162930</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>138098</v>
+        <v>141173</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>188929</v>
+        <v>191934</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1554780788197322</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1317822107675486</v>
+        <v>0.1347161008048403</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1802877064384009</v>
+        <v>0.1831557733607337</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>371</v>
@@ -979,19 +979,19 @@
         <v>236927</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>213700</v>
+        <v>214579</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>260130</v>
+        <v>259290</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2212536285967975</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1995629200501356</v>
+        <v>0.2003838742959867</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2429217730919414</v>
+        <v>0.2421370357771398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>542</v>
@@ -1000,19 +1000,19 @@
         <v>399857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>366985</v>
+        <v>365641</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>435917</v>
+        <v>436692</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1887214450782362</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1732066939396751</v>
+        <v>0.1725723928478726</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2057408917640058</v>
+        <v>0.2061067996053536</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>884999</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>859000</v>
+        <v>855995</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>909831</v>
+        <v>906756</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8445219211802678</v>
+        <v>0.8445219211802676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8197122935615992</v>
+        <v>0.8168442266392661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8682177892324514</v>
+        <v>0.8652838991951597</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1145</v>
@@ -1050,19 +1050,19 @@
         <v>833911</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>810708</v>
+        <v>811548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>857138</v>
+        <v>856259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7787463714032025</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7570782269080586</v>
+        <v>0.7578629642228603</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8004370799498646</v>
+        <v>0.7996161257040135</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1937</v>
@@ -1071,19 +1071,19 @@
         <v>1718910</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1682850</v>
+        <v>1682075</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1751782</v>
+        <v>1753126</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8112785549217636</v>
+        <v>0.8112785549217637</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7942591082359943</v>
+        <v>0.7938932003946464</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8267933060603251</v>
+        <v>0.8274276071521275</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>96286</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>79128</v>
+        <v>79315</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>117459</v>
+        <v>119444</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1198964974004839</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09853117376526119</v>
+        <v>0.09876451723546044</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1462623438015803</v>
+        <v>0.1487337114222502</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>211</v>
@@ -1196,19 +1196,19 @@
         <v>152499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>133960</v>
+        <v>133692</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>173237</v>
+        <v>172902</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1877468994485428</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1649222713909554</v>
+        <v>0.1645927996539442</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2132784346092427</v>
+        <v>0.2128654824751637</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>308</v>
@@ -1217,19 +1217,19 @@
         <v>248785</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>221808</v>
+        <v>222194</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>277400</v>
+        <v>277675</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1540146163638565</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1373144945871301</v>
+        <v>0.1375531222829161</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1717292121031441</v>
+        <v>0.1718996233302572</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>706787</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>685614</v>
+        <v>683629</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>723945</v>
+        <v>723758</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8801035025995162</v>
+        <v>0.8801035025995161</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8537376561984197</v>
+        <v>0.8512662885777497</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9014688262347387</v>
+        <v>0.9012354827645388</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>836</v>
@@ -1267,19 +1267,19 @@
         <v>659760</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>639022</v>
+        <v>639357</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>678299</v>
+        <v>678567</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8122531005514572</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7867215653907571</v>
+        <v>0.7871345175248362</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8350777286090444</v>
+        <v>0.8354072003460556</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1415</v>
@@ -1288,19 +1288,19 @@
         <v>1366547</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1337932</v>
+        <v>1337657</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1393524</v>
+        <v>1393138</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8459853836361436</v>
+        <v>0.8459853836361434</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.828270787896856</v>
+        <v>0.8281003766697426</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8626855054128699</v>
+        <v>0.8624468777170838</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>184760</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>161186</v>
+        <v>161385</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>211007</v>
+        <v>211627</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1866149784477935</v>
+        <v>0.1866149784477936</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1628037209125643</v>
+        <v>0.1630049704595492</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2131246162151766</v>
+        <v>0.2137514905100304</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>401</v>
@@ -1413,19 +1413,19 @@
         <v>265356</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>240149</v>
+        <v>242902</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>288317</v>
+        <v>290730</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2372813613739137</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2147414771278484</v>
+        <v>0.217202540614772</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2578132389570486</v>
+        <v>0.2599701248611547</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>611</v>
@@ -1434,19 +1434,19 @@
         <v>450117</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>414068</v>
+        <v>417301</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>483389</v>
+        <v>483836</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2134892314796699</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1963914766533915</v>
+        <v>0.197925074433165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2292702970042264</v>
+        <v>0.2294822091833389</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>805302</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>779055</v>
+        <v>778435</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>828876</v>
+        <v>828677</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.8133850215522065</v>
+        <v>0.8133850215522064</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7868753837848235</v>
+        <v>0.7862485094899694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8371962790874357</v>
+        <v>0.8369950295404508</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1160</v>
@@ -1484,19 +1484,19 @@
         <v>852963</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>830002</v>
+        <v>827589</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>878170</v>
+        <v>875417</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7627186386260864</v>
+        <v>0.7627186386260862</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7421867610429513</v>
+        <v>0.7400298751388453</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7852585228721516</v>
+        <v>0.7827974593852277</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1956</v>
@@ -1505,19 +1505,19 @@
         <v>1658264</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1624992</v>
+        <v>1624545</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1694313</v>
+        <v>1691080</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.78651076852033</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7707297029957737</v>
+        <v>0.7705177908166614</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8036085233466087</v>
+        <v>0.8020749255668355</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>545433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>498049</v>
+        <v>496019</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>593388</v>
+        <v>589085</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1544833784981426</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1410628028153882</v>
+        <v>0.1404877661425593</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.168065623630614</v>
+        <v>0.1668470330535761</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1282</v>
@@ -1630,19 +1630,19 @@
         <v>822101</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>782892</v>
+        <v>778655</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>867918</v>
+        <v>866555</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.2201583296902654</v>
+        <v>0.2201583296902653</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2096581977364999</v>
+        <v>0.2085233523276036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2324279539116074</v>
+        <v>0.232063047000463</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1877</v>
@@ -1651,19 +1651,19 @@
         <v>1367535</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1310397</v>
+        <v>1302608</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1433550</v>
+        <v>1427863</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1882404373811206</v>
+        <v>0.1882404373811207</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1803753939454212</v>
+        <v>0.1793032977574212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1973274072086536</v>
+        <v>0.1965445562060301</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2985259</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2937304</v>
+        <v>2941607</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3032643</v>
+        <v>3034673</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8455166215018576</v>
+        <v>0.8455166215018575</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8319343763693861</v>
+        <v>0.833152966946424</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8589371971846119</v>
+        <v>0.8595122338574407</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4080</v>
@@ -1701,19 +1701,19 @@
         <v>2912036</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2866219</v>
+        <v>2867582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2951245</v>
+        <v>2955482</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.7798416703097346</v>
+        <v>0.7798416703097345</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7675720460883927</v>
+        <v>0.767936952999537</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7903418022634998</v>
+        <v>0.7914766476723964</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6859</v>
@@ -1722,19 +1722,19 @@
         <v>5897295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5831280</v>
+        <v>5836967</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5954433</v>
+        <v>5962222</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8117595626188793</v>
+        <v>0.8117595626188792</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8026725927913462</v>
+        <v>0.8034554437939702</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8196246060545789</v>
+        <v>0.8206967022425791</v>
       </c>
     </row>
     <row r="18">
